--- a/Data Sets for code divisio/Algerian_forest_fires_dataset_UPDATE.xlsx
+++ b/Data Sets for code divisio/Algerian_forest_fires_dataset_UPDATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lila/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7EEC6F-925B-154A-842A-3DFCE645F1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0918BB57-C16D-444A-9DE1-76EFDD1DEC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="26340" windowHeight="13420"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="24">
   <si>
     <t>day</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">not fire    </t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">

--- a/Data Sets for code divisio/Algerian_forest_fires_dataset_UPDATE.xlsx
+++ b/Data Sets for code divisio/Algerian_forest_fires_dataset_UPDATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lila/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ACAFA-D1A5-5040-98AC-6994D54387C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5100C3E-0632-8647-9B0A-2118CF77A9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="26340" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="22">
   <si>
     <t>day</t>
   </si>
@@ -74,13 +74,7 @@
     <t>fire</t>
   </si>
   <si>
-    <t xml:space="preserve">fire </t>
-  </si>
-  <si>
     <t>not fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not fire </t>
   </si>
   <si>
     <t xml:space="preserve">not fire     </t>
@@ -935,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1026,7 +1020,7 @@
         <v>0.5</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1070,7 +1064,7 @@
         <v>0.4</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1114,7 +1108,7 @@
         <v>0.1</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1158,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1202,7 +1196,7 @@
         <v>0.5</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1246,7 +1240,7 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1290,7 +1284,7 @@
         <v>7.2</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1334,7 +1328,7 @@
         <v>7.1</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1378,7 +1372,7 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1422,7 +1416,7 @@
         <v>0.9</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1466,7 +1460,7 @@
         <v>5.6</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1510,7 +1504,7 @@
         <v>7.1</v>
       </c>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1554,7 +1548,7 @@
         <v>0.2</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1598,7 +1592,7 @@
         <v>0.4</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1642,7 +1636,7 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1686,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1774,7 +1768,7 @@
         <v>0.2</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1818,7 +1812,7 @@
         <v>1.4</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1862,7 +1856,7 @@
         <v>0.4</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1906,7 +1900,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1950,7 +1944,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1994,7 +1988,7 @@
         <v>3.8</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2038,7 +2032,7 @@
         <v>7.5</v>
       </c>
       <c r="N25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2082,7 +2076,7 @@
         <v>8.4</v>
       </c>
       <c r="N26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2126,7 +2120,7 @@
         <v>10.6</v>
       </c>
       <c r="N27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2170,7 +2164,7 @@
         <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2214,7 +2208,7 @@
         <v>13.9</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2258,7 +2252,7 @@
         <v>3.9</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2302,7 +2296,7 @@
         <v>12.9</v>
       </c>
       <c r="N31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2346,7 +2340,7 @@
         <v>0.4</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2390,7 +2384,7 @@
         <v>0.3</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2434,7 +2428,7 @@
         <v>0.5</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2478,7 +2472,7 @@
         <v>1.7</v>
       </c>
       <c r="N35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2522,7 +2516,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="N36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2566,7 +2560,7 @@
         <v>6.8</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2610,7 +2604,7 @@
         <v>3.2</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2654,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2698,7 +2692,7 @@
         <v>0.6</v>
       </c>
       <c r="N40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2742,7 +2736,7 @@
         <v>0.5</v>
       </c>
       <c r="N41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2786,7 +2780,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2830,7 +2824,7 @@
         <v>0.9</v>
       </c>
       <c r="N43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2874,7 +2868,7 @@
         <v>3.4</v>
       </c>
       <c r="N44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2918,7 +2912,7 @@
         <v>0.8</v>
       </c>
       <c r="N45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2962,7 +2956,7 @@
         <v>0.5</v>
       </c>
       <c r="N46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3006,7 +3000,7 @@
         <v>0.4</v>
       </c>
       <c r="N47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -3050,7 +3044,7 @@
         <v>3.6</v>
       </c>
       <c r="N48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -3094,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3138,7 +3132,7 @@
         <v>10.9</v>
       </c>
       <c r="N50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3182,7 +3176,7 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3226,7 +3220,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="N52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3270,7 +3264,7 @@
         <v>2.8</v>
       </c>
       <c r="N53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3314,7 +3308,7 @@
         <v>2.1</v>
       </c>
       <c r="N54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3358,7 +3352,7 @@
         <v>1.3</v>
       </c>
       <c r="N55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3402,7 +3396,7 @@
         <v>7.3</v>
       </c>
       <c r="N56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3446,7 +3440,7 @@
         <v>15.3</v>
       </c>
       <c r="N57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3490,7 +3484,7 @@
         <v>15.3</v>
       </c>
       <c r="N58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3534,7 +3528,7 @@
         <v>11.3</v>
       </c>
       <c r="N59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3578,7 +3572,7 @@
         <v>11.9</v>
       </c>
       <c r="N60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3622,7 +3616,7 @@
         <v>10.7</v>
       </c>
       <c r="N61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3666,7 +3660,7 @@
         <v>15.7</v>
       </c>
       <c r="N62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3710,7 +3704,7 @@
         <v>0.9</v>
       </c>
       <c r="N63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3754,7 +3748,7 @@
         <v>0.8</v>
       </c>
       <c r="N64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3798,7 +3792,7 @@
         <v>0.8</v>
       </c>
       <c r="N65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3842,7 +3836,7 @@
         <v>3.9</v>
       </c>
       <c r="N66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3886,7 +3880,7 @@
         <v>6.1</v>
       </c>
       <c r="N67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3930,7 +3924,7 @@
         <v>6.8</v>
       </c>
       <c r="N68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3974,7 +3968,7 @@
         <v>8</v>
       </c>
       <c r="N69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4018,7 +4012,7 @@
         <v>2.6</v>
       </c>
       <c r="N70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4062,7 +4056,7 @@
         <v>9.9</v>
       </c>
       <c r="N71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -4106,7 +4100,7 @@
         <v>11.6</v>
       </c>
       <c r="N72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4150,7 +4144,7 @@
         <v>12.1</v>
       </c>
       <c r="N73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4194,7 +4188,7 @@
         <v>4.2</v>
       </c>
       <c r="N74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4238,7 +4232,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="N75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4282,7 +4276,7 @@
         <v>10.6</v>
       </c>
       <c r="N76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4326,7 +4320,7 @@
         <v>6.3</v>
       </c>
       <c r="N77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4370,7 +4364,7 @@
         <v>4.2</v>
       </c>
       <c r="N78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4414,7 +4408,7 @@
         <v>14.6</v>
       </c>
       <c r="N79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4458,7 +4452,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="N80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4502,7 +4496,7 @@
         <v>17.2</v>
       </c>
       <c r="N81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4546,7 +4540,7 @@
         <v>16.8</v>
       </c>
       <c r="N82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4590,7 +4584,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="N83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4634,7 +4628,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="N84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4722,7 +4716,7 @@
         <v>20.9</v>
       </c>
       <c r="N86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4810,7 +4804,7 @@
         <v>13.7</v>
       </c>
       <c r="N88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4898,7 +4892,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="N90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4942,7 +4936,7 @@
         <v>30.2</v>
       </c>
       <c r="N91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4986,7 +4980,7 @@
         <v>4.2</v>
       </c>
       <c r="N92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -5030,7 +5024,7 @@
         <v>0.3</v>
       </c>
       <c r="N93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -5074,7 +5068,7 @@
         <v>0.1</v>
       </c>
       <c r="N94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -5118,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -5162,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5206,7 +5200,7 @@
         <v>0.5</v>
       </c>
       <c r="N97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -5250,7 +5244,7 @@
         <v>1.7</v>
       </c>
       <c r="N98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5294,7 +5288,7 @@
         <v>0.9</v>
       </c>
       <c r="N99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5338,7 +5332,7 @@
         <v>0.6</v>
       </c>
       <c r="N100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5382,7 +5376,7 @@
         <v>0.4</v>
       </c>
       <c r="N101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5426,7 +5420,7 @@
         <v>0.2</v>
       </c>
       <c r="N102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5470,7 +5464,7 @@
         <v>0.3</v>
       </c>
       <c r="N103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5514,7 +5508,7 @@
         <v>0.3</v>
       </c>
       <c r="N104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5558,7 +5552,7 @@
         <v>0.5</v>
       </c>
       <c r="N105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5602,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5646,7 +5640,7 @@
         <v>0.1</v>
       </c>
       <c r="N107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -5690,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5734,7 +5728,7 @@
         <v>0.8</v>
       </c>
       <c r="N109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5778,7 +5772,7 @@
         <v>5.9</v>
       </c>
       <c r="N110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5822,7 +5816,7 @@
         <v>7.7</v>
       </c>
       <c r="N111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5866,7 +5860,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="N112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5954,7 +5948,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="N114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5998,7 +5992,7 @@
         <v>2.8</v>
       </c>
       <c r="N115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -6042,7 +6036,7 @@
         <v>0.7</v>
       </c>
       <c r="N116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -6086,7 +6080,7 @@
         <v>0.7</v>
       </c>
       <c r="N117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -6130,7 +6124,7 @@
         <v>0.1</v>
       </c>
       <c r="N118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -6174,7 +6168,7 @@
         <v>1.7</v>
       </c>
       <c r="N119" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6218,7 +6212,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -6262,7 +6256,7 @@
         <v>0.9</v>
       </c>
       <c r="N121" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6306,7 +6300,7 @@
         <v>0.1</v>
       </c>
       <c r="N122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6350,7 +6344,7 @@
         <v>0.1</v>
       </c>
       <c r="N123" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +7723,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -8333,7 +8327,7 @@
         <v>12.9</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K45">
         <v>12.5</v>
@@ -11774,7 +11768,7 @@
         <v>0.5</v>
       </c>
       <c r="N123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
